--- a/ennusteet_excel/sensitiivisyys/matala_nettomuutto_ennusteet.xlsx
+++ b/ennusteet_excel/sensitiivisyys/matala_nettomuutto_ennusteet.xlsx
@@ -553,621 +553,639 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>989944.5</v>
+        <v>1004037</v>
       </c>
       <c r="D3" t="n">
-        <v>999717.7</v>
+        <v>1004037</v>
       </c>
       <c r="E3" t="n">
-        <v>992094.25</v>
+        <v>1004037</v>
       </c>
       <c r="F3" t="n">
-        <v>997148</v>
+        <v>1004037</v>
       </c>
       <c r="G3" t="n">
-        <v>994512.5</v>
+        <v>1004037</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>965750</v>
-      </c>
-      <c r="D4" t="n">
-        <v>985800.4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>969858.25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>980445.25</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>975048</v>
-      </c>
-      <c r="H4"/>
+        <v>1004037</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>939555.8</v>
+        <v>979219.9</v>
       </c>
       <c r="D5" t="n">
-        <v>970607.4</v>
+        <v>990403.2</v>
       </c>
       <c r="E5" t="n">
-        <v>946238.5</v>
+        <v>981714.75</v>
       </c>
       <c r="F5" t="n">
-        <v>962781.75</v>
+        <v>987526.25</v>
       </c>
       <c r="G5" t="n">
-        <v>954295</v>
+        <v>984448.5</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>912719</v>
+        <v>953169.8</v>
       </c>
       <c r="D6" t="n">
-        <v>955273.8</v>
+        <v>975652.9</v>
       </c>
       <c r="E6" t="n">
-        <v>921899.5</v>
+        <v>958078.5</v>
       </c>
       <c r="F6" t="n">
-        <v>944985.25</v>
+        <v>970400.75</v>
       </c>
       <c r="G6" t="n">
-        <v>933016</v>
+        <v>963945.5</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>885975.5</v>
+        <v>926018.8</v>
       </c>
       <c r="D7" t="n">
-        <v>940727</v>
+        <v>960694.9</v>
       </c>
       <c r="E7" t="n">
-        <v>898309</v>
+        <v>933472.25</v>
       </c>
       <c r="F7" t="n">
-        <v>928440</v>
+        <v>952337.5</v>
       </c>
       <c r="G7" t="n">
-        <v>913077.5</v>
+        <v>942769.5</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>859921.8</v>
+        <v>898843.2</v>
       </c>
       <c r="D8" t="n">
-        <v>926551.5</v>
+        <v>946866.2</v>
       </c>
       <c r="E8" t="n">
-        <v>874476.75</v>
+        <v>909661.75</v>
       </c>
       <c r="F8" t="n">
-        <v>910631</v>
+        <v>935389.25</v>
       </c>
       <c r="G8" t="n">
-        <v>892558</v>
+        <v>922602.5</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>832852.5</v>
+        <v>872036.7</v>
       </c>
       <c r="D9" t="n">
-        <v>913183.5</v>
+        <v>932797.7</v>
       </c>
       <c r="E9" t="n">
-        <v>851373.75</v>
+        <v>886273.25</v>
       </c>
       <c r="F9" t="n">
-        <v>894811.75</v>
+        <v>918680.75</v>
       </c>
       <c r="G9" t="n">
-        <v>872873.5</v>
+        <v>901959.5</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>807554.7</v>
+        <v>846002.7</v>
       </c>
       <c r="D10" t="n">
-        <v>901751.4</v>
+        <v>920041.5</v>
       </c>
       <c r="E10" t="n">
-        <v>830057.75</v>
+        <v>863294.25</v>
       </c>
       <c r="F10" t="n">
-        <v>879540.5</v>
+        <v>903194</v>
       </c>
       <c r="G10" t="n">
-        <v>854078.5</v>
+        <v>882933.5</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>783619.9</v>
+        <v>819793.1</v>
       </c>
       <c r="D11" t="n">
-        <v>891920.6</v>
+        <v>908909.1</v>
       </c>
       <c r="E11" t="n">
-        <v>809926</v>
+        <v>841825.5</v>
       </c>
       <c r="F11" t="n">
-        <v>866907</v>
+        <v>887916</v>
       </c>
       <c r="G11" t="n">
-        <v>838008</v>
+        <v>864409.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>761720.5</v>
+        <v>795978.4</v>
       </c>
       <c r="D12" t="n">
-        <v>884650.6</v>
+        <v>898457.3</v>
       </c>
       <c r="E12" t="n">
-        <v>792566.25</v>
+        <v>821461.25</v>
       </c>
       <c r="F12" t="n">
-        <v>856684.75</v>
+        <v>875474.5</v>
       </c>
       <c r="G12" t="n">
-        <v>823729.5</v>
+        <v>847420.5</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>743620.7</v>
+        <v>775594.7</v>
       </c>
       <c r="D13" t="n">
-        <v>881323</v>
+        <v>891020.3</v>
       </c>
       <c r="E13" t="n">
-        <v>778759</v>
+        <v>803448</v>
       </c>
       <c r="F13" t="n">
-        <v>849341.25</v>
+        <v>865910.25</v>
       </c>
       <c r="G13" t="n">
-        <v>812720.5</v>
+        <v>833783</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>727421.8</v>
+        <v>756348.4</v>
       </c>
       <c r="D14" t="n">
-        <v>880651.9</v>
+        <v>888512.5</v>
       </c>
       <c r="E14" t="n">
-        <v>766413.25</v>
+        <v>789675</v>
       </c>
       <c r="F14" t="n">
-        <v>846015.5</v>
+        <v>859443</v>
       </c>
       <c r="G14" t="n">
-        <v>804980.5</v>
+        <v>822756</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>713622.9</v>
+        <v>739581.2</v>
       </c>
       <c r="D15" t="n">
-        <v>880084.5</v>
+        <v>887772</v>
       </c>
       <c r="E15" t="n">
-        <v>757218.75</v>
+        <v>777654.75</v>
       </c>
       <c r="F15" t="n">
-        <v>842601.5</v>
+        <v>853897.25</v>
       </c>
       <c r="G15" t="n">
-        <v>799051</v>
+        <v>815140</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>699547.4</v>
+        <v>725947.5</v>
       </c>
       <c r="D16" t="n">
-        <v>881446.6</v>
+        <v>889037.7</v>
       </c>
       <c r="E16" t="n">
-        <v>745512.25</v>
+        <v>768431.5</v>
       </c>
       <c r="F16" t="n">
-        <v>838360.75</v>
+        <v>850645.5</v>
       </c>
       <c r="G16" t="n">
-        <v>792437</v>
+        <v>808952.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>683339.1</v>
+        <v>712337</v>
       </c>
       <c r="D17" t="n">
-        <v>880192.2</v>
+        <v>890241.4</v>
       </c>
       <c r="E17" t="n">
-        <v>732659.25</v>
+        <v>756536.5</v>
       </c>
       <c r="F17" t="n">
-        <v>831786.5</v>
+        <v>845772.75</v>
       </c>
       <c r="G17" t="n">
-        <v>784011.5</v>
+        <v>802517</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>671685</v>
+        <v>694286.2</v>
       </c>
       <c r="D18" t="n">
-        <v>881775.9</v>
+        <v>885670.1</v>
       </c>
       <c r="E18" t="n">
-        <v>725003.5</v>
+        <v>743855</v>
       </c>
       <c r="F18" t="n">
-        <v>831542.25</v>
+        <v>839770.75</v>
       </c>
       <c r="G18" t="n">
-        <v>780525</v>
+        <v>794058.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>662187</v>
+        <v>682731.1</v>
       </c>
       <c r="D19" t="n">
-        <v>886918.8</v>
+        <v>890825.1</v>
       </c>
       <c r="E19" t="n">
-        <v>719830</v>
+        <v>735239.25</v>
       </c>
       <c r="F19" t="n">
-        <v>832348.5</v>
+        <v>839029.25</v>
       </c>
       <c r="G19" t="n">
-        <v>778582</v>
+        <v>790670.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>651526.4</v>
+        <v>671723.9</v>
       </c>
       <c r="D20" t="n">
-        <v>894970.8</v>
+        <v>896611.9</v>
       </c>
       <c r="E20" t="n">
-        <v>712426.75</v>
+        <v>728450</v>
       </c>
       <c r="F20" t="n">
-        <v>833974</v>
+        <v>840769.75</v>
       </c>
       <c r="G20" t="n">
-        <v>777184</v>
+        <v>789043.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>643800.5</v>
+        <v>663532.2</v>
       </c>
       <c r="D21" t="n">
-        <v>894857.8</v>
+        <v>901879.3</v>
       </c>
       <c r="E21" t="n">
-        <v>707660</v>
+        <v>723780.25</v>
       </c>
       <c r="F21" t="n">
-        <v>833387.25</v>
+        <v>843674.5</v>
       </c>
       <c r="G21" t="n">
-        <v>775277</v>
+        <v>787218</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>636576.3</v>
+        <v>651650.6</v>
       </c>
       <c r="D22" t="n">
-        <v>891768.7</v>
+        <v>905635.2</v>
       </c>
       <c r="E22" t="n">
-        <v>703184.75</v>
+        <v>716165</v>
       </c>
       <c r="F22" t="n">
-        <v>831285.75</v>
+        <v>843414.5</v>
       </c>
       <c r="G22" t="n">
-        <v>772247.5</v>
+        <v>784672.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>627067.2</v>
+        <v>644178.8</v>
       </c>
       <c r="D23" t="n">
-        <v>889785.2</v>
+        <v>902399.4</v>
       </c>
       <c r="E23" t="n">
-        <v>696782.75</v>
+        <v>711616</v>
       </c>
       <c r="F23" t="n">
-        <v>827943</v>
+        <v>841168.5</v>
       </c>
       <c r="G23" t="n">
-        <v>768457.5</v>
+        <v>781496.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>618004.8</v>
+        <v>634539.8</v>
       </c>
       <c r="D24" t="n">
-        <v>887542.5</v>
+        <v>900228.5</v>
       </c>
       <c r="E24" t="n">
-        <v>693065.75</v>
+        <v>705018.75</v>
       </c>
       <c r="F24" t="n">
-        <v>825533.75</v>
+        <v>837701.75</v>
       </c>
       <c r="G24" t="n">
-        <v>764940.5</v>
+        <v>777493.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>611168.3</v>
+        <v>625234.3</v>
       </c>
       <c r="D25" t="n">
-        <v>884184.9</v>
+        <v>897707.3</v>
       </c>
       <c r="E25" t="n">
-        <v>686846.25</v>
+        <v>701171.25</v>
       </c>
       <c r="F25" t="n">
-        <v>823929.25</v>
+        <v>835175</v>
       </c>
       <c r="G25" t="n">
-        <v>760595.5</v>
+        <v>773853</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>606005.4</v>
+        <v>618249.5</v>
       </c>
       <c r="D26" t="n">
-        <v>880860.4</v>
+        <v>894255.1</v>
       </c>
       <c r="E26" t="n">
-        <v>679275.5</v>
+        <v>694877.75</v>
       </c>
       <c r="F26" t="n">
-        <v>820641.75</v>
+        <v>833448.5</v>
       </c>
       <c r="G26" t="n">
-        <v>756090.5</v>
+        <v>769297.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>597116.6</v>
+        <v>612987.3</v>
       </c>
       <c r="D27" t="n">
-        <v>875015.5</v>
+        <v>890451.6</v>
       </c>
       <c r="E27" t="n">
-        <v>672643.5</v>
+        <v>686860.25</v>
       </c>
       <c r="F27" t="n">
-        <v>814410</v>
+        <v>829804.5</v>
       </c>
       <c r="G27" t="n">
-        <v>749350.5</v>
+        <v>764596.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>594381.6</v>
+        <v>604258.3</v>
       </c>
       <c r="D28" t="n">
-        <v>870178.7</v>
+        <v>884752.8</v>
       </c>
       <c r="E28" t="n">
-        <v>666967</v>
+        <v>680246.75</v>
       </c>
       <c r="F28" t="n">
-        <v>807053.5</v>
+        <v>823652</v>
       </c>
       <c r="G28" t="n">
-        <v>742332.5</v>
+        <v>757879.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>601197</v>
+      </c>
+      <c r="D29" t="n">
+        <v>879559.2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>674447.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>816002.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>750647</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1222,621 +1240,639 @@
         <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>1.16158067206499</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="D3" t="n">
-        <v>1.44266251740752</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="E3" t="n">
-        <v>1.22315352303706</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="F3" t="n">
-        <v>1.36877574592261</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="G3" t="n">
-        <v>1.29306694722196</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.15061805603691</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.47093475507373</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.22156448069946</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.3886936710932</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>1.30039190961972</v>
-      </c>
-      <c r="H4"/>
+        <v>1.2780796334476</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
       <c r="C5" t="n">
-        <v>1.12927778772515</v>
+        <v>1.15061805603691</v>
       </c>
       <c r="D5" t="n">
-        <v>1.48965411636352</v>
+        <v>1.47093475507373</v>
       </c>
       <c r="E5" t="n">
-        <v>1.21414429876089</v>
+        <v>1.22156448069946</v>
       </c>
       <c r="F5" t="n">
-        <v>1.40843480297687</v>
+        <v>1.3886936710932</v>
       </c>
       <c r="G5" t="n">
-        <v>1.30867174588539</v>
+        <v>1.30039190961972</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>1.12100158240035</v>
+        <v>1.12927778772515</v>
       </c>
       <c r="D6" t="n">
-        <v>1.51282915087396</v>
+        <v>1.48965411636352</v>
       </c>
       <c r="E6" t="n">
-        <v>1.20382590404728</v>
+        <v>1.21414429876089</v>
       </c>
       <c r="F6" t="n">
-        <v>1.42299107832175</v>
+        <v>1.40843480297687</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32108022751372</v>
+        <v>1.30867174588539</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>1.11666182387558</v>
+        <v>1.12100158240035</v>
       </c>
       <c r="D7" t="n">
-        <v>1.53087767011943</v>
+        <v>1.51282915087396</v>
       </c>
       <c r="E7" t="n">
-        <v>1.21417813226209</v>
+        <v>1.20382590404728</v>
       </c>
       <c r="F7" t="n">
-        <v>1.42973154462228</v>
+        <v>1.42299107832175</v>
       </c>
       <c r="G7" t="n">
-        <v>1.32305283265772</v>
+        <v>1.32108022751372</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>1.11130299208843</v>
+        <v>1.11666182387558</v>
       </c>
       <c r="D8" t="n">
-        <v>1.54129695153765</v>
+        <v>1.53087767011943</v>
       </c>
       <c r="E8" t="n">
-        <v>1.21349624921232</v>
+        <v>1.21417813226209</v>
       </c>
       <c r="F8" t="n">
-        <v>1.44107404234682</v>
+        <v>1.42973154462228</v>
       </c>
       <c r="G8" t="n">
-        <v>1.33637401233704</v>
+        <v>1.32305283265772</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
       <c r="C9" t="n">
-        <v>1.10344457905032</v>
+        <v>1.11130299208843</v>
       </c>
       <c r="D9" t="n">
-        <v>1.56198231827718</v>
+        <v>1.54129695153765</v>
       </c>
       <c r="E9" t="n">
-        <v>1.21188119702286</v>
+        <v>1.21349624921232</v>
       </c>
       <c r="F9" t="n">
-        <v>1.45660316492537</v>
+        <v>1.44107404234682</v>
       </c>
       <c r="G9" t="n">
-        <v>1.33582991809635</v>
+        <v>1.33637401233704</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
       <c r="C10" t="n">
-        <v>1.10598500546352</v>
+        <v>1.10344457905032</v>
       </c>
       <c r="D10" t="n">
-        <v>1.57581331115355</v>
+        <v>1.56198231827718</v>
       </c>
       <c r="E10" t="n">
-        <v>1.21884373160442</v>
+        <v>1.21188119702286</v>
       </c>
       <c r="F10" t="n">
-        <v>1.4694717553957</v>
+        <v>1.45660316492537</v>
       </c>
       <c r="G10" t="n">
-        <v>1.34368867167156</v>
+        <v>1.33582991809635</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
       </c>
       <c r="C11" t="n">
-        <v>1.09646228050542</v>
+        <v>1.10598500546352</v>
       </c>
       <c r="D11" t="n">
-        <v>1.58241644167648</v>
+        <v>1.57581331115355</v>
       </c>
       <c r="E11" t="n">
-        <v>1.21888022290412</v>
+        <v>1.21884373160442</v>
       </c>
       <c r="F11" t="n">
-        <v>1.48204700427204</v>
+        <v>1.4694717553957</v>
       </c>
       <c r="G11" t="n">
-        <v>1.34803103531925</v>
+        <v>1.34368867167156</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
       </c>
       <c r="C12" t="n">
-        <v>1.08528203880155</v>
+        <v>1.09646228050542</v>
       </c>
       <c r="D12" t="n">
-        <v>1.60242916438207</v>
+        <v>1.58241644167648</v>
       </c>
       <c r="E12" t="n">
-        <v>1.21658675787477</v>
+        <v>1.21888022290412</v>
       </c>
       <c r="F12" t="n">
-        <v>1.4882352856823</v>
+        <v>1.48204700427204</v>
       </c>
       <c r="G12" t="n">
-        <v>1.35598812753968</v>
+        <v>1.34803103531925</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>1.07877487439865</v>
+        <v>1.08528203880155</v>
       </c>
       <c r="D13" t="n">
-        <v>1.61714292493226</v>
+        <v>1.60242916438207</v>
       </c>
       <c r="E13" t="n">
-        <v>1.21576592310236</v>
+        <v>1.21658675787477</v>
       </c>
       <c r="F13" t="n">
-        <v>1.49183388933846</v>
+        <v>1.4882352856823</v>
       </c>
       <c r="G13" t="n">
-        <v>1.37171272680842</v>
+        <v>1.35598812753968</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0873248738124</v>
+        <v>1.07877487439865</v>
       </c>
       <c r="D14" t="n">
-        <v>1.63212213073084</v>
+        <v>1.61714292493226</v>
       </c>
       <c r="E14" t="n">
-        <v>1.22290400607251</v>
+        <v>1.21576592310236</v>
       </c>
       <c r="F14" t="n">
-        <v>1.509277253468</v>
+        <v>1.49183388933846</v>
       </c>
       <c r="G14" t="n">
-        <v>1.37509849231608</v>
+        <v>1.37171272680842</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" t="n">
-        <v>1.09146861917517</v>
+        <v>1.0873248738124</v>
       </c>
       <c r="D15" t="n">
-        <v>1.64158955209321</v>
+        <v>1.63212213073084</v>
       </c>
       <c r="E15" t="n">
-        <v>1.22517059710176</v>
+        <v>1.22290400607251</v>
       </c>
       <c r="F15" t="n">
-        <v>1.51705441790654</v>
+        <v>1.509277253468</v>
       </c>
       <c r="G15" t="n">
-        <v>1.38549494577113</v>
+        <v>1.37509849231608</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16" t="n">
-        <v>1.08794836047519</v>
+        <v>1.09146861917517</v>
       </c>
       <c r="D16" t="n">
-        <v>1.64929444243715</v>
+        <v>1.64158955209321</v>
       </c>
       <c r="E16" t="n">
-        <v>1.23500757159733</v>
+        <v>1.22517059710176</v>
       </c>
       <c r="F16" t="n">
-        <v>1.51935853517645</v>
+        <v>1.51705441790654</v>
       </c>
       <c r="G16" t="n">
-        <v>1.38648564374382</v>
+        <v>1.38549494577113</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
       <c r="C17" t="n">
-        <v>1.07585210226621</v>
+        <v>1.08794836047519</v>
       </c>
       <c r="D17" t="n">
-        <v>1.64809734565513</v>
+        <v>1.64929444243715</v>
       </c>
       <c r="E17" t="n">
-        <v>1.23135831599826</v>
+        <v>1.23500757159733</v>
       </c>
       <c r="F17" t="n">
-        <v>1.52945412903461</v>
+        <v>1.51935853517645</v>
       </c>
       <c r="G17" t="n">
-        <v>1.38807690796734</v>
+        <v>1.38648564374382</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="n">
-        <v>1.06705667312135</v>
+        <v>1.07585210226621</v>
       </c>
       <c r="D18" t="n">
-        <v>1.66443230644291</v>
+        <v>1.64809734565513</v>
       </c>
       <c r="E18" t="n">
-        <v>1.23418955308699</v>
+        <v>1.23135831599826</v>
       </c>
       <c r="F18" t="n">
-        <v>1.53497417961588</v>
+        <v>1.52945412903461</v>
       </c>
       <c r="G18" t="n">
-        <v>1.38845652773934</v>
+        <v>1.38807690796734</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
       </c>
       <c r="C19" t="n">
-        <v>1.05873281063613</v>
+        <v>1.06705667312135</v>
       </c>
       <c r="D19" t="n">
-        <v>1.68115878611563</v>
+        <v>1.66443230644291</v>
       </c>
       <c r="E19" t="n">
-        <v>1.23191427823521</v>
+        <v>1.23418955308699</v>
       </c>
       <c r="F19" t="n">
-        <v>1.53906012997073</v>
+        <v>1.53497417961588</v>
       </c>
       <c r="G19" t="n">
-        <v>1.38905070105348</v>
+        <v>1.38845652773934</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>1.07277079940008</v>
+        <v>1.05873281063613</v>
       </c>
       <c r="D20" t="n">
-        <v>1.69757635607091</v>
+        <v>1.68115878611563</v>
       </c>
       <c r="E20" t="n">
-        <v>1.23754196641202</v>
+        <v>1.23191427823521</v>
       </c>
       <c r="F20" t="n">
-        <v>1.54772204587026</v>
+        <v>1.53906012997073</v>
       </c>
       <c r="G20" t="n">
-        <v>1.40032458449159</v>
+        <v>1.38905070105348</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
       </c>
       <c r="C21" t="n">
-        <v>1.07535212617163</v>
+        <v>1.07277079940008</v>
       </c>
       <c r="D21" t="n">
-        <v>1.71296499707748</v>
+        <v>1.69757635607091</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2344204164291</v>
+        <v>1.23754196641202</v>
       </c>
       <c r="F21" t="n">
-        <v>1.55618756085112</v>
+        <v>1.54772204587026</v>
       </c>
       <c r="G21" t="n">
-        <v>1.39945851846958</v>
+        <v>1.40032458449159</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
       </c>
       <c r="C22" t="n">
-        <v>1.06411828107446</v>
+        <v>1.07535212617163</v>
       </c>
       <c r="D22" t="n">
-        <v>1.72038904190727</v>
+        <v>1.71296499707748</v>
       </c>
       <c r="E22" t="n">
-        <v>1.23459483375155</v>
+        <v>1.2344204164291</v>
       </c>
       <c r="F22" t="n">
-        <v>1.56181085237151</v>
+        <v>1.55618756085112</v>
       </c>
       <c r="G22" t="n">
-        <v>1.41054327797016</v>
+        <v>1.39945851846958</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
       </c>
       <c r="C23" t="n">
-        <v>1.05769189110853</v>
+        <v>1.06411828107446</v>
       </c>
       <c r="D23" t="n">
-        <v>1.73149215896779</v>
+        <v>1.72038904190727</v>
       </c>
       <c r="E23" t="n">
-        <v>1.23531342553563</v>
+        <v>1.23459483375155</v>
       </c>
       <c r="F23" t="n">
-        <v>1.56166149822386</v>
+        <v>1.56181085237151</v>
       </c>
       <c r="G23" t="n">
-        <v>1.40843082698582</v>
+        <v>1.41054327797016</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
       </c>
       <c r="C24" t="n">
-        <v>1.06674158357543</v>
+        <v>1.05769189110853</v>
       </c>
       <c r="D24" t="n">
-        <v>1.73332161013256</v>
+        <v>1.73149215896779</v>
       </c>
       <c r="E24" t="n">
-        <v>1.22952980193493</v>
+        <v>1.23531342553563</v>
       </c>
       <c r="F24" t="n">
-        <v>1.57172243656036</v>
+        <v>1.56166149822386</v>
       </c>
       <c r="G24" t="n">
-        <v>1.41127679309632</v>
+        <v>1.40843082698582</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>1.04534524929615</v>
+        <v>1.06674158357543</v>
       </c>
       <c r="D25" t="n">
-        <v>1.73481469414601</v>
+        <v>1.73332161013256</v>
       </c>
       <c r="E25" t="n">
-        <v>1.24254609833418</v>
+        <v>1.22952980193493</v>
       </c>
       <c r="F25" t="n">
-        <v>1.57894754609896</v>
+        <v>1.57172243656036</v>
       </c>
       <c r="G25" t="n">
-        <v>1.41276728546054</v>
+        <v>1.41127679309632</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>1.05145238932517</v>
+        <v>1.04534524929615</v>
       </c>
       <c r="D26" t="n">
-        <v>1.74293850539961</v>
+        <v>1.73481469414601</v>
       </c>
       <c r="E26" t="n">
-        <v>1.24369190096971</v>
+        <v>1.24254609833418</v>
       </c>
       <c r="F26" t="n">
-        <v>1.57957425373549</v>
+        <v>1.57894754609896</v>
       </c>
       <c r="G26" t="n">
-        <v>1.42193661462329</v>
+        <v>1.41276728546054</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
       <c r="C27" t="n">
-        <v>1.05899206869517</v>
+        <v>1.05145238932517</v>
       </c>
       <c r="D27" t="n">
-        <v>1.74886133645298</v>
+        <v>1.74293850539961</v>
       </c>
       <c r="E27" t="n">
-        <v>1.24774071121993</v>
+        <v>1.24369190096971</v>
       </c>
       <c r="F27" t="n">
-        <v>1.59050566606348</v>
+        <v>1.57957425373549</v>
       </c>
       <c r="G27" t="n">
-        <v>1.42290232989069</v>
+        <v>1.42193661462329</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28" t="n">
+        <v>1.05899206869517</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.74886133645298</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.24774071121993</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.59050566606348</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.42290232989069</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="n">
         <v>1.05818232103186</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>1.73454789579819</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E29" t="n">
         <v>1.24432542646672</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F29" t="n">
         <v>1.59538716797686</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>1.42595283068202</v>
       </c>
-      <c r="H28"/>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1891,621 +1927,639 @@
         <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>0.176179002999408</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="D3" t="n">
-        <v>0.177616936138932</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="E3" t="n">
-        <v>0.176505912806431</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.177261371694146</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="G3" t="n">
-        <v>0.176853904851851</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.172421327457571</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.175423791904999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.173030658571927</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.174609664222577</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.173803752342633</v>
-      </c>
-      <c r="H4"/>
+        <v>0.177488907352083</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>0.168290921173184</v>
+        <v>0.173637825229404</v>
       </c>
       <c r="D5" t="n">
-        <v>0.172976222841023</v>
+        <v>0.175305240294473</v>
       </c>
       <c r="E5" t="n">
-        <v>0.169344501764432</v>
+        <v>0.17398676273108</v>
       </c>
       <c r="F5" t="n">
-        <v>0.171887249447651</v>
+        <v>0.174874826375766</v>
       </c>
       <c r="G5" t="n">
-        <v>0.170605179573052</v>
+        <v>0.174443491521754</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>0.164126772384791</v>
+        <v>0.169586321293714</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17061520641416</v>
+        <v>0.172949748876723</v>
       </c>
       <c r="E6" t="n">
-        <v>0.165566398617672</v>
+        <v>0.170291954697251</v>
       </c>
       <c r="F6" t="n">
-        <v>0.169121130797752</v>
+        <v>0.172180895398599</v>
       </c>
       <c r="G6" t="n">
-        <v>0.167254021816749</v>
+        <v>0.17123995495668</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159944745175468</v>
+        <v>0.165327127383786</v>
       </c>
       <c r="D7" t="n">
-        <v>0.168303736889418</v>
+        <v>0.170588751427955</v>
       </c>
       <c r="E7" t="n">
-        <v>0.161860500323961</v>
+        <v>0.166510453220094</v>
       </c>
       <c r="F7" t="n">
-        <v>0.166408635574132</v>
+        <v>0.169438608094178</v>
       </c>
       <c r="G7" t="n">
-        <v>0.164072478397894</v>
+        <v>0.167927103917683</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>0.155766392874171</v>
+        <v>0.161195755481185</v>
       </c>
       <c r="D8" t="n">
-        <v>0.166082230316759</v>
+        <v>0.168395663829746</v>
       </c>
       <c r="E8" t="n">
-        <v>0.158126480192965</v>
+        <v>0.162797496873985</v>
       </c>
       <c r="F8" t="n">
-        <v>0.163801682210306</v>
+        <v>0.166797905057435</v>
       </c>
       <c r="G8" t="n">
-        <v>0.16086892022721</v>
+        <v>0.164745827558302</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>0.151746923404174</v>
+        <v>0.156933602419857</v>
       </c>
       <c r="D9" t="n">
-        <v>0.16419555632485</v>
+        <v>0.166156814810872</v>
       </c>
       <c r="E9" t="n">
-        <v>0.154495612425965</v>
+        <v>0.159063017016143</v>
       </c>
       <c r="F9" t="n">
-        <v>0.16146135457636</v>
+        <v>0.164216089285308</v>
       </c>
       <c r="G9" t="n">
-        <v>0.157942227209358</v>
+        <v>0.161602654314807</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>0.147854540011303</v>
+        <v>0.15294777056335</v>
       </c>
       <c r="D10" t="n">
-        <v>0.162416098353748</v>
+        <v>0.164281946098048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.151104893654901</v>
+        <v>0.155468869765521</v>
       </c>
       <c r="F10" t="n">
-        <v>0.159263835726639</v>
+        <v>0.161888509788696</v>
       </c>
       <c r="G10" t="n">
-        <v>0.155109832740421</v>
+        <v>0.158603582329292</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>0.14410445900034</v>
+        <v>0.149003939109617</v>
       </c>
       <c r="D11" t="n">
-        <v>0.160863215430494</v>
+        <v>0.162572127530154</v>
       </c>
       <c r="E11" t="n">
-        <v>0.148138103128879</v>
+        <v>0.152153837957555</v>
       </c>
       <c r="F11" t="n">
-        <v>0.157327264660524</v>
+        <v>0.159634549579059</v>
       </c>
       <c r="G11" t="n">
-        <v>0.152808255572754</v>
+        <v>0.155837264685187</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>0.14092782162757</v>
+        <v>0.145410897135196</v>
       </c>
       <c r="D12" t="n">
-        <v>0.160271573286187</v>
+        <v>0.161088350389654</v>
       </c>
       <c r="E12" t="n">
-        <v>0.145780965661002</v>
+        <v>0.149314311806728</v>
       </c>
       <c r="F12" t="n">
-        <v>0.15601010599798</v>
+        <v>0.157800766161756</v>
       </c>
       <c r="G12" t="n">
-        <v>0.150895832915642</v>
+        <v>0.15348419094414</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>0.138266252273439</v>
+        <v>0.142189115589986</v>
       </c>
       <c r="D13" t="n">
-        <v>0.160250147275132</v>
+        <v>0.160412656687744</v>
       </c>
       <c r="E13" t="n">
-        <v>0.143618029359729</v>
+        <v>0.14679050480207</v>
       </c>
       <c r="F13" t="n">
-        <v>0.155197160481621</v>
+        <v>0.156482637184375</v>
       </c>
       <c r="G13" t="n">
-        <v>0.149310622104028</v>
+        <v>0.15146978317527</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>0.136173139471869</v>
+        <v>0.139500556447387</v>
       </c>
       <c r="D14" t="n">
-        <v>0.160540049390617</v>
+        <v>0.160430368562391</v>
       </c>
       <c r="E14" t="n">
-        <v>0.142314315201915</v>
+        <v>0.144872148762144</v>
       </c>
       <c r="F14" t="n">
-        <v>0.15473391017173</v>
+        <v>0.155685308244088</v>
       </c>
       <c r="G14" t="n">
-        <v>0.148494303163825</v>
+        <v>0.150123886537233</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>0.134396238651421</v>
+        <v>0.137288950551785</v>
       </c>
       <c r="D15" t="n">
-        <v>0.161357992643763</v>
+        <v>0.160727630225282</v>
       </c>
       <c r="E15" t="n">
-        <v>0.141365158961045</v>
+        <v>0.143388506507732</v>
       </c>
       <c r="F15" t="n">
-        <v>0.15505358715398</v>
+        <v>0.155257130637703</v>
       </c>
       <c r="G15" t="n">
-        <v>0.148223295907194</v>
+        <v>0.149327033719203</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>0.132377711528415</v>
+        <v>0.135475966360902</v>
       </c>
       <c r="D16" t="n">
-        <v>0.161757777769496</v>
+        <v>0.161572656178508</v>
       </c>
       <c r="E16" t="n">
-        <v>0.14011311160663</v>
+        <v>0.142209370279857</v>
       </c>
       <c r="F16" t="n">
-        <v>0.154926767889431</v>
+        <v>0.155442599462663</v>
       </c>
       <c r="G16" t="n">
-        <v>0.147849078259452</v>
+        <v>0.148864495239097</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>0.130223753377027</v>
+        <v>0.133390139817862</v>
       </c>
       <c r="D17" t="n">
-        <v>0.16204472709792</v>
+        <v>0.162021337217127</v>
       </c>
       <c r="E17" t="n">
-        <v>0.138256050326716</v>
+        <v>0.141079129802326</v>
       </c>
       <c r="F17" t="n">
-        <v>0.154426275688</v>
+        <v>0.15518759066345</v>
       </c>
       <c r="G17" t="n">
-        <v>0.146990770248988</v>
+        <v>0.148653938798313</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>0.128652210398436</v>
+        <v>0.131077924496747</v>
       </c>
       <c r="D18" t="n">
-        <v>0.163065104178188</v>
+        <v>0.162069014426254</v>
       </c>
       <c r="E18" t="n">
-        <v>0.137561938757367</v>
+        <v>0.139336685926523</v>
       </c>
       <c r="F18" t="n">
-        <v>0.154804843244738</v>
+        <v>0.15459615218113</v>
       </c>
       <c r="G18" t="n">
-        <v>0.146975057134134</v>
+        <v>0.147668382228102</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>0.127430144132199</v>
+        <v>0.129820534940502</v>
       </c>
       <c r="D19" t="n">
-        <v>0.164375332791576</v>
+        <v>0.163065091822599</v>
       </c>
       <c r="E19" t="n">
-        <v>0.137207404675743</v>
+        <v>0.138625452989598</v>
       </c>
       <c r="F19" t="n">
-        <v>0.15591974052015</v>
+        <v>0.15520285007908</v>
       </c>
       <c r="G19" t="n">
-        <v>0.147449002116859</v>
+        <v>0.147688121409041</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>0.126435912967322</v>
+        <v>0.128713579451777</v>
       </c>
       <c r="D20" t="n">
-        <v>0.166133087971275</v>
+        <v>0.164562351864579</v>
       </c>
       <c r="E20" t="n">
-        <v>0.137124557084705</v>
+        <v>0.138299192018509</v>
       </c>
       <c r="F20" t="n">
-        <v>0.156968046109448</v>
+        <v>0.156382121136108</v>
       </c>
       <c r="G20" t="n">
-        <v>0.147978620393031</v>
+        <v>0.148203952557003</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>0.125943334181458</v>
+        <v>0.127515188105493</v>
       </c>
       <c r="D21" t="n">
-        <v>0.166612316456631</v>
+        <v>0.165997503682411</v>
       </c>
       <c r="E21" t="n">
-        <v>0.136774449125064</v>
+        <v>0.137883687727167</v>
       </c>
       <c r="F21" t="n">
-        <v>0.157302981651857</v>
+        <v>0.157252360668379</v>
       </c>
       <c r="G21" t="n">
-        <v>0.148157601395721</v>
+        <v>0.148720234642254</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="n">
-        <v>0.125270580224697</v>
+        <v>0.126407482002069</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166891178558906</v>
+        <v>0.167343108500873</v>
       </c>
       <c r="E22" t="n">
-        <v>0.13640293335748</v>
+        <v>0.137287496470197</v>
       </c>
       <c r="F22" t="n">
-        <v>0.158058749283833</v>
+        <v>0.157871803651479</v>
       </c>
       <c r="G22" t="n">
-        <v>0.14835662221985</v>
+        <v>0.148800379039814</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="n">
-        <v>0.124950443591068</v>
+        <v>0.12575230413583</v>
       </c>
       <c r="D23" t="n">
-        <v>0.167058516797628</v>
+        <v>0.167514311123494</v>
       </c>
       <c r="E23" t="n">
-        <v>0.136148002691336</v>
+        <v>0.136825252160791</v>
       </c>
       <c r="F23" t="n">
-        <v>0.158365496592907</v>
+        <v>0.158560694298461</v>
       </c>
       <c r="G23" t="n">
-        <v>0.14846581997841</v>
+        <v>0.148799681743465</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="n">
-        <v>0.123697976179679</v>
+        <v>0.125270457387573</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167364520592609</v>
+        <v>0.167627527109385</v>
       </c>
       <c r="E24" t="n">
-        <v>0.136376235556119</v>
+        <v>0.136584199585644</v>
       </c>
       <c r="F24" t="n">
-        <v>0.158503552399297</v>
+        <v>0.158822848041516</v>
       </c>
       <c r="G24" t="n">
-        <v>0.148557370011592</v>
+        <v>0.14894137655154</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="n">
-        <v>0.123096613056032</v>
+        <v>0.124065499631512</v>
       </c>
       <c r="D25" t="n">
-        <v>0.167719085340082</v>
+        <v>0.167947343771635</v>
       </c>
       <c r="E25" t="n">
-        <v>0.135821093836277</v>
+        <v>0.136776854135528</v>
       </c>
       <c r="F25" t="n">
-        <v>0.158745230265831</v>
+        <v>0.159006626683987</v>
       </c>
       <c r="G25" t="n">
-        <v>0.148269088870651</v>
+        <v>0.149011606534929</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" t="n">
-        <v>0.121875209532319</v>
+        <v>0.123454076567552</v>
       </c>
       <c r="D26" t="n">
-        <v>0.167801406802384</v>
+        <v>0.168209998360189</v>
       </c>
       <c r="E26" t="n">
-        <v>0.135609733607777</v>
+        <v>0.136190623472888</v>
       </c>
       <c r="F26" t="n">
-        <v>0.15871107984832</v>
+        <v>0.159097000294341</v>
       </c>
       <c r="G26" t="n">
-        <v>0.147866587970621</v>
+        <v>0.148740628088546</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
       </c>
       <c r="C27" t="n">
-        <v>0.122186124452082</v>
+        <v>0.12223919157018</v>
       </c>
       <c r="D27" t="n">
-        <v>0.167882412147378</v>
+        <v>0.168220460859364</v>
       </c>
       <c r="E27" t="n">
-        <v>0.135143307006815</v>
+        <v>0.135908892735515</v>
       </c>
       <c r="F27" t="n">
-        <v>0.158789687917731</v>
+        <v>0.159090043238325</v>
       </c>
       <c r="G27" t="n">
-        <v>0.147128641459525</v>
+        <v>0.148191674907774</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
       <c r="C28" t="n">
-        <v>0.121003297902362</v>
+        <v>0.122477981998743</v>
       </c>
       <c r="D28" t="n">
-        <v>0.168020709724687</v>
+        <v>0.168229237238488</v>
       </c>
       <c r="E28" t="n">
-        <v>0.134948201140744</v>
+        <v>0.135501265278037</v>
       </c>
       <c r="F28" t="n">
-        <v>0.158560649524099</v>
+        <v>0.159160947978397</v>
       </c>
       <c r="G28" t="n">
-        <v>0.146878715004232</v>
+        <v>0.147510227557446</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.121274444517976</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.168457854862944</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.135159086503013</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.158913274583648</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.147190636570216</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2560,621 +2614,639 @@
         <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>666856.9</v>
+        <v>678392</v>
       </c>
       <c r="D3" t="n">
-        <v>676633.3</v>
+        <v>678392</v>
       </c>
       <c r="E3" t="n">
-        <v>669005.25</v>
+        <v>678392</v>
       </c>
       <c r="F3" t="n">
-        <v>674062</v>
+        <v>678392</v>
       </c>
       <c r="G3" t="n">
-        <v>671427</v>
+        <v>678392</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="n">
-        <v>644449.6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>664511.1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>648563</v>
-      </c>
-      <c r="F4" t="n">
-        <v>659155.5</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>653760</v>
-      </c>
-      <c r="H4"/>
+        <v>678392</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>621931.9</v>
+        <v>655490.4</v>
       </c>
       <c r="D5" t="n">
-        <v>652992.9</v>
+        <v>666670.4</v>
       </c>
       <c r="E5" t="n">
-        <v>628638.25</v>
+        <v>657984.25</v>
       </c>
       <c r="F5" t="n">
-        <v>645172.25</v>
+        <v>663797</v>
       </c>
       <c r="G5" t="n">
-        <v>636685</v>
+        <v>660719</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>601436.2</v>
+        <v>633035.6</v>
       </c>
       <c r="D6" t="n">
-        <v>643962</v>
+        <v>655528</v>
       </c>
       <c r="E6" t="n">
-        <v>610590.5</v>
+        <v>637949.25</v>
       </c>
       <c r="F6" t="n">
-        <v>633688.75</v>
+        <v>650270.75</v>
       </c>
       <c r="G6" t="n">
-        <v>621710.5</v>
+        <v>643820</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>582413.9</v>
+        <v>612076.2</v>
       </c>
       <c r="D7" t="n">
-        <v>637181.4</v>
+        <v>646763.4</v>
       </c>
       <c r="E7" t="n">
-        <v>594760.25</v>
+        <v>619520.75</v>
       </c>
       <c r="F7" t="n">
-        <v>624909.5</v>
+        <v>638390.5</v>
       </c>
       <c r="G7" t="n">
-        <v>609537.5</v>
+        <v>628819.5</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>566699.7</v>
+        <v>592597.3</v>
       </c>
       <c r="D8" t="n">
-        <v>633342.4</v>
+        <v>640631.5</v>
       </c>
       <c r="E8" t="n">
-        <v>581244</v>
+        <v>603420.25</v>
       </c>
       <c r="F8" t="n">
-        <v>617408.75</v>
+        <v>629149.75</v>
       </c>
       <c r="G8" t="n">
-        <v>599351</v>
+        <v>616353</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>551469.7</v>
+        <v>576145.5</v>
       </c>
       <c r="D9" t="n">
-        <v>631811.7</v>
+        <v>636902.2</v>
       </c>
       <c r="E9" t="n">
-        <v>569979.75</v>
+        <v>590377.75</v>
       </c>
       <c r="F9" t="n">
-        <v>613441.75</v>
+        <v>622788</v>
       </c>
       <c r="G9" t="n">
-        <v>591502.5</v>
+        <v>606052</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>539330.2</v>
+        <v>561978</v>
       </c>
       <c r="D10" t="n">
-        <v>633525.7</v>
+        <v>636002.7</v>
       </c>
       <c r="E10" t="n">
-        <v>561827.5</v>
+        <v>579267.75</v>
       </c>
       <c r="F10" t="n">
-        <v>611343.5</v>
+        <v>619175.5</v>
       </c>
       <c r="G10" t="n">
-        <v>585866</v>
+        <v>598919</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>525778.2</v>
+        <v>548991.5</v>
       </c>
       <c r="D11" t="n">
-        <v>634074</v>
+        <v>638104.6</v>
       </c>
       <c r="E11" t="n">
-        <v>552071.25</v>
+        <v>571011.75</v>
       </c>
       <c r="F11" t="n">
-        <v>609072.5</v>
+        <v>617117</v>
       </c>
       <c r="G11" t="n">
-        <v>580177.5</v>
+        <v>593620.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>509062.5</v>
+        <v>535596.5</v>
       </c>
       <c r="D12" t="n">
-        <v>631971.5</v>
+        <v>638062.5</v>
       </c>
       <c r="E12" t="n">
-        <v>539919.75</v>
+        <v>561078</v>
       </c>
       <c r="F12" t="n">
-        <v>604047.5</v>
+        <v>615086.5</v>
       </c>
       <c r="G12" t="n">
-        <v>571070</v>
+        <v>587033</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="n">
-        <v>498419.5</v>
+        <v>520324.5</v>
       </c>
       <c r="D13" t="n">
-        <v>636124</v>
+        <v>635760.1</v>
       </c>
       <c r="E13" t="n">
-        <v>533571.75</v>
+        <v>548184.5</v>
       </c>
       <c r="F13" t="n">
-        <v>604165</v>
+        <v>610640</v>
       </c>
       <c r="G13" t="n">
-        <v>567526.5</v>
+        <v>578528</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>488878.7</v>
+        <v>508551.9</v>
       </c>
       <c r="D14" t="n">
-        <v>642099.8</v>
+        <v>640749</v>
       </c>
       <c r="E14" t="n">
-        <v>527858.25</v>
+        <v>541893.75</v>
       </c>
       <c r="F14" t="n">
-        <v>607486.75</v>
+        <v>611622</v>
       </c>
       <c r="G14" t="n">
-        <v>566454.5</v>
+        <v>574973.5</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>479600.3</v>
+        <v>498420.6</v>
       </c>
       <c r="D15" t="n">
-        <v>646050.7</v>
+        <v>646640.2</v>
       </c>
       <c r="E15" t="n">
-        <v>523178.75</v>
+        <v>536514.5</v>
       </c>
       <c r="F15" t="n">
-        <v>608569.5</v>
+        <v>612759.25</v>
       </c>
       <c r="G15" t="n">
-        <v>565019</v>
+        <v>574001</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>473301.6</v>
+        <v>489406</v>
       </c>
       <c r="D16" t="n">
-        <v>648980.2</v>
+        <v>652469.2</v>
       </c>
       <c r="E16" t="n">
-        <v>516959</v>
+        <v>531866</v>
       </c>
       <c r="F16" t="n">
-        <v>605012</v>
+        <v>614115.5</v>
       </c>
       <c r="G16" t="n">
-        <v>562345.5</v>
+        <v>572405.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>465702.5</v>
+        <v>479329.1</v>
       </c>
       <c r="D17" t="n">
-        <v>648507.7</v>
+        <v>657248.7</v>
       </c>
       <c r="E17" t="n">
-        <v>512870.25</v>
+        <v>523571.25</v>
       </c>
       <c r="F17" t="n">
-        <v>604268.75</v>
+        <v>612747.25</v>
       </c>
       <c r="G17" t="n">
-        <v>560912.5</v>
+        <v>569516</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>460778</v>
+        <v>471557.9</v>
       </c>
       <c r="D18" t="n">
-        <v>651348.8</v>
+        <v>656616.6</v>
       </c>
       <c r="E18" t="n">
-        <v>508238.25</v>
+        <v>519295</v>
       </c>
       <c r="F18" t="n">
-        <v>602614</v>
+        <v>611872.75</v>
       </c>
       <c r="G18" t="n">
-        <v>558637</v>
+        <v>567959</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>455468.4</v>
+        <v>466432</v>
       </c>
       <c r="D19" t="n">
-        <v>650907</v>
+        <v>659377.8</v>
       </c>
       <c r="E19" t="n">
-        <v>504332.75</v>
+        <v>514490</v>
       </c>
       <c r="F19" t="n">
-        <v>603194</v>
+        <v>610013.75</v>
       </c>
       <c r="G19" t="n">
-        <v>557767.5</v>
+        <v>565555.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>449101.7</v>
+        <v>461006.1</v>
       </c>
       <c r="D20" t="n">
-        <v>648719.8</v>
+        <v>658791</v>
       </c>
       <c r="E20" t="n">
-        <v>503356.75</v>
+        <v>510400.25</v>
       </c>
       <c r="F20" t="n">
-        <v>601576.5</v>
+        <v>610476.25</v>
       </c>
       <c r="G20" t="n">
-        <v>557670</v>
+        <v>564497</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>445811.4</v>
+        <v>454417.5</v>
       </c>
       <c r="D21" t="n">
-        <v>646012.4</v>
+        <v>656413.2</v>
       </c>
       <c r="E21" t="n">
-        <v>502554.75</v>
+        <v>509282.75</v>
       </c>
       <c r="F21" t="n">
-        <v>600724.75</v>
+        <v>608672.75</v>
       </c>
       <c r="G21" t="n">
-        <v>556149.5</v>
+        <v>564263</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="n">
-        <v>440848.6</v>
+        <v>450974</v>
       </c>
       <c r="D22" t="n">
-        <v>644274.9</v>
+        <v>653559.7</v>
       </c>
       <c r="E22" t="n">
-        <v>497919.25</v>
+        <v>508381</v>
       </c>
       <c r="F22" t="n">
-        <v>599187.75</v>
+        <v>607679.25</v>
       </c>
       <c r="G22" t="n">
-        <v>552924.5</v>
+        <v>562606.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
       <c r="C23" t="n">
-        <v>435890</v>
+        <v>445843</v>
       </c>
       <c r="D23" t="n">
-        <v>644573.1</v>
+        <v>651552.1</v>
       </c>
       <c r="E23" t="n">
-        <v>494468</v>
+        <v>503539</v>
       </c>
       <c r="F23" t="n">
-        <v>598530.5</v>
+        <v>605979.75</v>
       </c>
       <c r="G23" t="n">
-        <v>549398</v>
+        <v>559211</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
       </c>
       <c r="C24" t="n">
-        <v>430990.8</v>
+        <v>440744.8</v>
       </c>
       <c r="D24" t="n">
-        <v>643883.9</v>
+        <v>651686.9</v>
       </c>
       <c r="E24" t="n">
-        <v>491230.75</v>
+        <v>499991</v>
       </c>
       <c r="F24" t="n">
-        <v>596141</v>
+        <v>605168</v>
       </c>
       <c r="G24" t="n">
-        <v>546776</v>
+        <v>555495</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25" t="n">
-        <v>427227.4</v>
+        <v>435705</v>
       </c>
       <c r="D25" t="n">
-        <v>641394.7</v>
+        <v>650892.9</v>
       </c>
       <c r="E25" t="n">
-        <v>486387</v>
+        <v>496624</v>
       </c>
       <c r="F25" t="n">
-        <v>593615.25</v>
+        <v>602675.75</v>
       </c>
       <c r="G25" t="n">
-        <v>543066</v>
+        <v>552692</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="C26" t="n">
-        <v>423749.1</v>
+        <v>431957.1</v>
       </c>
       <c r="D26" t="n">
-        <v>637947.1</v>
+        <v>648350.9</v>
       </c>
       <c r="E26" t="n">
-        <v>480849.5</v>
+        <v>491608</v>
       </c>
       <c r="F26" t="n">
-        <v>590429</v>
+        <v>599861.5</v>
       </c>
       <c r="G26" t="n">
-        <v>537485</v>
+        <v>548893</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="n">
-        <v>416847.5</v>
+        <v>428288.8</v>
       </c>
       <c r="D27" t="n">
-        <v>636669.7</v>
+        <v>644386.2</v>
       </c>
       <c r="E27" t="n">
-        <v>475155.5</v>
+        <v>486100</v>
       </c>
       <c r="F27" t="n">
-        <v>584657.75</v>
+        <v>596523.5</v>
       </c>
       <c r="G27" t="n">
-        <v>531864</v>
+        <v>543169</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="n">
-        <v>409082.4</v>
+        <v>421141.3</v>
       </c>
       <c r="D28" t="n">
-        <v>631622.3</v>
+        <v>643510.8</v>
       </c>
       <c r="E28" t="n">
-        <v>468292.5</v>
+        <v>480252</v>
       </c>
       <c r="F28" t="n">
-        <v>578754.25</v>
+        <v>590738.25</v>
       </c>
       <c r="G28" t="n">
-        <v>525175</v>
+        <v>537338</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="n">
+        <v>413536.4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>638569.2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>473078.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>584547</v>
+      </c>
+      <c r="G29" t="n">
+        <v>530993.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3229,621 +3301,639 @@
         <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>323085</v>
+        <v>325645</v>
       </c>
       <c r="D3" t="n">
-        <v>323090</v>
+        <v>325645</v>
       </c>
       <c r="E3" t="n">
-        <v>323086</v>
+        <v>325645</v>
       </c>
       <c r="F3" t="n">
-        <v>323089</v>
+        <v>325645</v>
       </c>
       <c r="G3" t="n">
-        <v>323088</v>
+        <v>325645</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="n">
-        <v>321288</v>
-      </c>
-      <c r="D4" t="n">
-        <v>321299</v>
-      </c>
-      <c r="E4" t="n">
-        <v>321291</v>
-      </c>
-      <c r="F4" t="n">
-        <v>321296</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>321293</v>
-      </c>
-      <c r="H4"/>
+        <v>325645</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="n">
-        <v>317603</v>
+        <v>323729</v>
       </c>
       <c r="D5" t="n">
-        <v>317620</v>
+        <v>323737</v>
       </c>
       <c r="E5" t="n">
-        <v>317607</v>
+        <v>323731</v>
       </c>
       <c r="F5" t="n">
-        <v>317616</v>
+        <v>323735</v>
       </c>
       <c r="G5" t="n">
-        <v>317612</v>
+        <v>323733</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>311294</v>
+        <v>320121</v>
       </c>
       <c r="D6" t="n">
-        <v>311317</v>
+        <v>320136</v>
       </c>
       <c r="E6" t="n">
-        <v>311301</v>
+        <v>320125</v>
       </c>
       <c r="F6" t="n">
-        <v>311312</v>
+        <v>320133</v>
       </c>
       <c r="G6" t="n">
-        <v>311307</v>
+        <v>320129</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>303535</v>
+        <v>313932</v>
       </c>
       <c r="D7" t="n">
-        <v>303562</v>
+        <v>313953</v>
       </c>
       <c r="E7" t="n">
-        <v>303542</v>
+        <v>313937</v>
       </c>
       <c r="F7" t="n">
-        <v>303556.25</v>
+        <v>313948</v>
       </c>
       <c r="G7" t="n">
-        <v>303550</v>
+        <v>313943</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>293198</v>
+        <v>306222</v>
       </c>
       <c r="D8" t="n">
-        <v>293230</v>
+        <v>306249</v>
       </c>
       <c r="E8" t="n">
-        <v>293207</v>
+        <v>306229</v>
       </c>
       <c r="F8" t="n">
-        <v>293223</v>
+        <v>306243</v>
       </c>
       <c r="G8" t="n">
-        <v>293216</v>
+        <v>306237</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>281361</v>
+        <v>295873</v>
       </c>
       <c r="D9" t="n">
-        <v>281397</v>
+        <v>295904</v>
       </c>
       <c r="E9" t="n">
-        <v>281371</v>
+        <v>295882</v>
       </c>
       <c r="F9" t="n">
-        <v>281389</v>
+        <v>295898</v>
       </c>
       <c r="G9" t="n">
-        <v>281382</v>
+        <v>295891</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>268191</v>
+        <v>284000</v>
       </c>
       <c r="D10" t="n">
-        <v>268231</v>
+        <v>284035</v>
       </c>
       <c r="E10" t="n">
-        <v>268203</v>
+        <v>284009.75</v>
       </c>
       <c r="F10" t="n">
-        <v>268223</v>
+        <v>284027</v>
       </c>
       <c r="G10" t="n">
-        <v>268214</v>
+        <v>284020</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>257813</v>
+        <v>270780</v>
       </c>
       <c r="D11" t="n">
-        <v>257856</v>
+        <v>270819</v>
       </c>
       <c r="E11" t="n">
-        <v>257826</v>
+        <v>270792</v>
       </c>
       <c r="F11" t="n">
-        <v>257847</v>
+        <v>270811</v>
       </c>
       <c r="G11" t="n">
-        <v>257838</v>
+        <v>270803</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>252645</v>
+        <v>260353</v>
       </c>
       <c r="D12" t="n">
-        <v>252690</v>
+        <v>260395</v>
       </c>
       <c r="E12" t="n">
-        <v>252659</v>
+        <v>260366</v>
       </c>
       <c r="F12" t="n">
-        <v>252681</v>
+        <v>260387</v>
       </c>
       <c r="G12" t="n">
-        <v>252672</v>
+        <v>260378</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>245162</v>
+        <v>255238</v>
       </c>
       <c r="D13" t="n">
-        <v>245210</v>
+        <v>255283</v>
       </c>
       <c r="E13" t="n">
-        <v>245177</v>
+        <v>255252</v>
       </c>
       <c r="F13" t="n">
-        <v>245201</v>
+        <v>255274</v>
       </c>
       <c r="G13" t="n">
-        <v>245191</v>
+        <v>255265</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>238520</v>
+        <v>247756</v>
       </c>
       <c r="D14" t="n">
-        <v>238573</v>
+        <v>247804</v>
       </c>
       <c r="E14" t="n">
-        <v>238537</v>
+        <v>247772</v>
       </c>
       <c r="F14" t="n">
-        <v>238563</v>
+        <v>247795</v>
       </c>
       <c r="G14" t="n">
-        <v>238552</v>
+        <v>247785</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="n">
-        <v>234000</v>
+        <v>241105</v>
       </c>
       <c r="D15" t="n">
-        <v>234059</v>
+        <v>241157</v>
       </c>
       <c r="E15" t="n">
-        <v>234019</v>
+        <v>241122</v>
       </c>
       <c r="F15" t="n">
-        <v>234048</v>
+        <v>241147</v>
       </c>
       <c r="G15" t="n">
-        <v>234035</v>
+        <v>241136</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>225676.3</v>
+        <v>236516</v>
       </c>
       <c r="D16" t="n">
-        <v>235430.9</v>
+        <v>236573</v>
       </c>
       <c r="E16" t="n">
-        <v>227839.5</v>
+        <v>236535</v>
       </c>
       <c r="F16" t="n">
-        <v>232885.75</v>
+        <v>236563</v>
       </c>
       <c r="G16" t="n">
-        <v>230221</v>
+        <v>236551</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>214382.5</v>
+        <v>232964</v>
       </c>
       <c r="D17" t="n">
-        <v>234401.4</v>
+        <v>233028</v>
       </c>
       <c r="E17" t="n">
-        <v>218477.25</v>
+        <v>232985</v>
       </c>
       <c r="F17" t="n">
-        <v>229035.25</v>
+        <v>233017</v>
       </c>
       <c r="G17" t="n">
-        <v>223637</v>
+        <v>233003</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
       <c r="C18" t="n">
-        <v>207030.4</v>
+        <v>221162.3</v>
       </c>
       <c r="D18" t="n">
-        <v>238071.5</v>
+        <v>232303.5</v>
       </c>
       <c r="E18" t="n">
-        <v>213709.75</v>
+        <v>223616.25</v>
       </c>
       <c r="F18" t="n">
-        <v>230234.25</v>
+        <v>229437.25</v>
       </c>
       <c r="G18" t="n">
-        <v>221751.5</v>
+        <v>226363.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>201641.5</v>
+        <v>213925.1</v>
       </c>
       <c r="D19" t="n">
-        <v>244184.3</v>
+        <v>236398.3</v>
       </c>
       <c r="E19" t="n">
-        <v>210861</v>
+        <v>218845.75</v>
       </c>
       <c r="F19" t="n">
-        <v>233900.5</v>
+        <v>231168</v>
       </c>
       <c r="G19" t="n">
-        <v>221963.5</v>
+        <v>224698</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>195565.5</v>
+        <v>208225.9</v>
       </c>
       <c r="D20" t="n">
-        <v>250254.7</v>
+        <v>242911</v>
       </c>
       <c r="E20" t="n">
-        <v>207883.5</v>
+        <v>215662.5</v>
       </c>
       <c r="F20" t="n">
-        <v>238057.75</v>
+        <v>234533.25</v>
       </c>
       <c r="G20" t="n">
-        <v>222700.5</v>
+        <v>224940.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>191202.5</v>
+        <v>201714.5</v>
       </c>
       <c r="D21" t="n">
-        <v>251109.2</v>
+        <v>249708.6</v>
       </c>
       <c r="E21" t="n">
-        <v>205214.25</v>
+        <v>212528.5</v>
       </c>
       <c r="F21" t="n">
-        <v>237165.75</v>
+        <v>238207.75</v>
       </c>
       <c r="G21" t="n">
-        <v>220695</v>
+        <v>225453.5</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="n">
-        <v>186862.7</v>
+        <v>193753.2</v>
       </c>
       <c r="D22" t="n">
-        <v>251158.6</v>
+        <v>254466.7</v>
       </c>
       <c r="E22" t="n">
-        <v>202369.5</v>
+        <v>207957</v>
       </c>
       <c r="F22" t="n">
-        <v>236424</v>
+        <v>240330.25</v>
       </c>
       <c r="G22" t="n">
-        <v>219565</v>
+        <v>223637.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="n">
-        <v>183808</v>
+        <v>189379.7</v>
       </c>
       <c r="D23" t="n">
-        <v>250874</v>
+        <v>254552.5</v>
       </c>
       <c r="E23" t="n">
-        <v>200347.75</v>
+        <v>205098.75</v>
       </c>
       <c r="F23" t="n">
-        <v>235624</v>
+        <v>239610</v>
       </c>
       <c r="G23" t="n">
-        <v>217536</v>
+        <v>222530</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="n">
-        <v>181118.9</v>
+        <v>186298.3</v>
       </c>
       <c r="D24" t="n">
-        <v>249752.2</v>
+        <v>254277</v>
       </c>
       <c r="E24" t="n">
-        <v>197008</v>
+        <v>203063.25</v>
       </c>
       <c r="F24" t="n">
-        <v>235089.75</v>
+        <v>238818.75</v>
       </c>
       <c r="G24" t="n">
-        <v>216579</v>
+        <v>220479.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25" t="n">
-        <v>178140.7</v>
+        <v>183559</v>
       </c>
       <c r="D25" t="n">
-        <v>250276.8</v>
+        <v>253112.1</v>
       </c>
       <c r="E25" t="n">
-        <v>195538.25</v>
+        <v>199667.25</v>
       </c>
       <c r="F25" t="n">
-        <v>233803.75</v>
+        <v>238261.25</v>
       </c>
       <c r="G25" t="n">
-        <v>215011.5</v>
+        <v>219493.5</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
       <c r="C26" t="n">
-        <v>175536.8</v>
+        <v>180500.9</v>
       </c>
       <c r="D26" t="n">
-        <v>251177.3</v>
+        <v>253594.3</v>
       </c>
       <c r="E26" t="n">
-        <v>194531</v>
+        <v>198125.5</v>
       </c>
       <c r="F26" t="n">
-        <v>233446</v>
+        <v>236905</v>
       </c>
       <c r="G26" t="n">
-        <v>215202.5</v>
+        <v>217867.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
       </c>
       <c r="C27" t="n">
-        <v>173004.7</v>
+        <v>177819.4</v>
       </c>
       <c r="D27" t="n">
-        <v>251215.3</v>
+        <v>254441.7</v>
       </c>
       <c r="E27" t="n">
-        <v>192944</v>
+        <v>197056</v>
       </c>
       <c r="F27" t="n">
-        <v>233241.75</v>
+        <v>236469.5</v>
       </c>
       <c r="G27" t="n">
-        <v>214934.5</v>
+        <v>217988</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
       </c>
       <c r="C28" t="n">
-        <v>170593.6</v>
+        <v>175185.5</v>
       </c>
       <c r="D28" t="n">
-        <v>251628</v>
+        <v>254375.1</v>
       </c>
       <c r="E28" t="n">
-        <v>191354.25</v>
+        <v>195368.5</v>
       </c>
       <c r="F28" t="n">
-        <v>232804.25</v>
+        <v>236180</v>
       </c>
       <c r="G28" t="n">
-        <v>214310</v>
+        <v>217636</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="n">
+        <v>172670.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>254685.7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>193673.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>235639.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>216919.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3898,621 +3988,639 @@
         <v>43</v>
       </c>
       <c r="C3" t="n">
-        <v>64228</v>
+        <v>64863</v>
       </c>
       <c r="D3" t="n">
-        <v>64229</v>
+        <v>64863</v>
       </c>
       <c r="E3" t="n">
-        <v>64228</v>
+        <v>64863</v>
       </c>
       <c r="F3" t="n">
-        <v>64229</v>
+        <v>64863</v>
       </c>
       <c r="G3" t="n">
-        <v>64228</v>
+        <v>64863</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="n">
-        <v>65028</v>
-      </c>
-      <c r="D4" t="n">
-        <v>65032</v>
-      </c>
-      <c r="E4" t="n">
-        <v>65029</v>
-      </c>
-      <c r="F4" t="n">
-        <v>65031</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>65030</v>
-      </c>
-      <c r="H4"/>
+        <v>64863</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
       <c r="C5" t="n">
-        <v>65419</v>
+        <v>65523</v>
       </c>
       <c r="D5" t="n">
-        <v>65424</v>
+        <v>65526</v>
       </c>
       <c r="E5" t="n">
-        <v>65420</v>
+        <v>65524</v>
       </c>
       <c r="F5" t="n">
-        <v>65423</v>
+        <v>65525</v>
       </c>
       <c r="G5" t="n">
-        <v>65421</v>
+        <v>65525</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6" t="n">
-        <v>64294</v>
+        <v>65855</v>
       </c>
       <c r="D6" t="n">
-        <v>64301</v>
+        <v>65860</v>
       </c>
       <c r="E6" t="n">
-        <v>64296</v>
+        <v>65856</v>
       </c>
       <c r="F6" t="n">
-        <v>64300</v>
+        <v>65859</v>
       </c>
       <c r="G6" t="n">
-        <v>64298</v>
+        <v>65858</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>63992</v>
+        <v>64755</v>
       </c>
       <c r="D7" t="n">
-        <v>64001</v>
+        <v>64762</v>
       </c>
       <c r="E7" t="n">
-        <v>63994</v>
+        <v>64756</v>
       </c>
       <c r="F7" t="n">
-        <v>63999</v>
+        <v>64760</v>
       </c>
       <c r="G7" t="n">
-        <v>63997</v>
+        <v>64758</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>62432</v>
+        <v>64512</v>
       </c>
       <c r="D8" t="n">
-        <v>62442</v>
+        <v>64520</v>
       </c>
       <c r="E8" t="n">
-        <v>62435</v>
+        <v>64514</v>
       </c>
       <c r="F8" t="n">
-        <v>62440</v>
+        <v>64518</v>
       </c>
       <c r="G8" t="n">
-        <v>62438</v>
+        <v>64516</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>61346</v>
+        <v>62949</v>
       </c>
       <c r="D9" t="n">
-        <v>61358</v>
+        <v>62959</v>
       </c>
       <c r="E9" t="n">
-        <v>61349</v>
+        <v>62952</v>
       </c>
       <c r="F9" t="n">
-        <v>61355</v>
+        <v>62957</v>
       </c>
       <c r="G9" t="n">
-        <v>61353</v>
+        <v>62955</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>59114</v>
+        <v>61919</v>
       </c>
       <c r="D10" t="n">
-        <v>59126</v>
+        <v>61930</v>
       </c>
       <c r="E10" t="n">
-        <v>59117</v>
+        <v>61922</v>
       </c>
       <c r="F10" t="n">
-        <v>59123</v>
+        <v>61928</v>
       </c>
       <c r="G10" t="n">
-        <v>59121</v>
+        <v>61925</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>56539</v>
+        <v>59669</v>
       </c>
       <c r="D11" t="n">
-        <v>56552</v>
+        <v>59681</v>
       </c>
       <c r="E11" t="n">
-        <v>56543</v>
+        <v>59673</v>
       </c>
       <c r="F11" t="n">
-        <v>56549</v>
+        <v>59679</v>
       </c>
       <c r="G11" t="n">
-        <v>56547</v>
+        <v>59676</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12" t="n">
-        <v>53660</v>
+        <v>57050</v>
       </c>
       <c r="D12" t="n">
-        <v>53673</v>
+        <v>57063</v>
       </c>
       <c r="E12" t="n">
-        <v>53664</v>
+        <v>57054</v>
       </c>
       <c r="F12" t="n">
-        <v>53671</v>
+        <v>57061</v>
       </c>
       <c r="G12" t="n">
-        <v>53668</v>
+        <v>57058</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="n">
-        <v>50601</v>
+        <v>54168</v>
       </c>
       <c r="D13" t="n">
-        <v>50615</v>
+        <v>54182</v>
       </c>
       <c r="E13" t="n">
-        <v>50606</v>
+        <v>54173</v>
       </c>
       <c r="F13" t="n">
-        <v>50612</v>
+        <v>54179</v>
       </c>
       <c r="G13" t="n">
-        <v>50609</v>
+        <v>54176</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>48183</v>
+        <v>51082</v>
       </c>
       <c r="D14" t="n">
-        <v>48197</v>
+        <v>51096</v>
       </c>
       <c r="E14" t="n">
-        <v>48188</v>
+        <v>51087</v>
       </c>
       <c r="F14" t="n">
-        <v>48194</v>
+        <v>51093</v>
       </c>
       <c r="G14" t="n">
-        <v>48191</v>
+        <v>51090</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="n">
-        <v>48740</v>
+        <v>48706</v>
       </c>
       <c r="D15" t="n">
-        <v>48755</v>
+        <v>48720</v>
       </c>
       <c r="E15" t="n">
-        <v>48745</v>
+        <v>48711</v>
       </c>
       <c r="F15" t="n">
-        <v>48752</v>
+        <v>48718</v>
       </c>
       <c r="G15" t="n">
-        <v>48748</v>
+        <v>48715</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>51371</v>
+        <v>49246</v>
       </c>
       <c r="D16" t="n">
-        <v>51388</v>
+        <v>49262</v>
       </c>
       <c r="E16" t="n">
-        <v>51377</v>
+        <v>49251</v>
       </c>
       <c r="F16" t="n">
-        <v>51385</v>
+        <v>49259</v>
       </c>
       <c r="G16" t="n">
-        <v>51381</v>
+        <v>49255</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
       <c r="C17" t="n">
-        <v>46180</v>
+        <v>51936</v>
       </c>
       <c r="D17" t="n">
-        <v>46196</v>
+        <v>51953</v>
       </c>
       <c r="E17" t="n">
-        <v>46185</v>
+        <v>51941</v>
       </c>
       <c r="F17" t="n">
-        <v>46193</v>
+        <v>51949</v>
       </c>
       <c r="G17" t="n">
-        <v>46189</v>
+        <v>51946</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>43963</v>
+        <v>46690</v>
       </c>
       <c r="D18" t="n">
-        <v>43981</v>
+        <v>46706</v>
       </c>
       <c r="E18" t="n">
-        <v>43969</v>
+        <v>46695</v>
       </c>
       <c r="F18" t="n">
-        <v>43977</v>
+        <v>46703</v>
       </c>
       <c r="G18" t="n">
-        <v>43973</v>
+        <v>46700</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>43667</v>
+        <v>44435</v>
       </c>
       <c r="D19" t="n">
-        <v>43686</v>
+        <v>44453</v>
       </c>
       <c r="E19" t="n">
-        <v>43673</v>
+        <v>44441</v>
       </c>
       <c r="F19" t="n">
-        <v>43683</v>
+        <v>44449</v>
       </c>
       <c r="G19" t="n">
-        <v>43678</v>
+        <v>44445</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>40393.2</v>
+        <v>44122</v>
       </c>
       <c r="D20" t="n">
-        <v>50159.2</v>
+        <v>44140</v>
       </c>
       <c r="E20" t="n">
-        <v>42549</v>
+        <v>44127</v>
       </c>
       <c r="F20" t="n">
-        <v>47594.5</v>
+        <v>44137</v>
       </c>
       <c r="G20" t="n">
-        <v>44944.5</v>
+        <v>44133</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>39590</v>
+        <v>45696.9</v>
       </c>
       <c r="D21" t="n">
-        <v>50606.5</v>
+        <v>45719</v>
       </c>
       <c r="E21" t="n">
-        <v>42023.5</v>
+        <v>45703</v>
       </c>
       <c r="F21" t="n">
-        <v>47770.25</v>
+        <v>45715</v>
       </c>
       <c r="G21" t="n">
-        <v>44737</v>
+        <v>45710</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="n">
-        <v>38395.6</v>
+        <v>40099.8</v>
       </c>
       <c r="D22" t="n">
-        <v>50663.5</v>
+        <v>51257.5</v>
       </c>
       <c r="E22" t="n">
-        <v>41280.25</v>
+        <v>42563.75</v>
       </c>
       <c r="F22" t="n">
-        <v>47891.75</v>
+        <v>48383.25</v>
       </c>
       <c r="G22" t="n">
-        <v>44518</v>
+        <v>45312.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="n">
-        <v>37659.8</v>
+        <v>38900.5</v>
       </c>
       <c r="D23" t="n">
-        <v>50830</v>
+        <v>51329.6</v>
       </c>
       <c r="E23" t="n">
-        <v>40442.25</v>
+        <v>41823.25</v>
       </c>
       <c r="F23" t="n">
-        <v>47799.75</v>
+        <v>48522.5</v>
       </c>
       <c r="G23" t="n">
-        <v>44389.5</v>
+        <v>45103.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" t="n">
-        <v>37010.6</v>
+        <v>38165.6</v>
       </c>
       <c r="D24" t="n">
-        <v>50740.2</v>
+        <v>51511.9</v>
       </c>
       <c r="E24" t="n">
-        <v>40268.75</v>
+        <v>40984.25</v>
       </c>
       <c r="F24" t="n">
-        <v>47415.25</v>
+        <v>48441.5</v>
       </c>
       <c r="G24" t="n">
-        <v>43889</v>
+        <v>44984.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25" t="n">
-        <v>36397.9</v>
+        <v>37512.6</v>
       </c>
       <c r="D25" t="n">
-        <v>50471</v>
+        <v>51428.3</v>
       </c>
       <c r="E25" t="n">
-        <v>39754.75</v>
+        <v>40815.5</v>
       </c>
       <c r="F25" t="n">
-        <v>47199.75</v>
+        <v>48059.25</v>
       </c>
       <c r="G25" t="n">
-        <v>43777</v>
+        <v>44484</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
       <c r="C26" t="n">
-        <v>35681.4</v>
+        <v>36893.9</v>
       </c>
       <c r="D26" t="n">
-        <v>50601.4</v>
+        <v>51159.8</v>
       </c>
       <c r="E26" t="n">
-        <v>39229</v>
+        <v>40295.25</v>
       </c>
       <c r="F26" t="n">
-        <v>47127.25</v>
+        <v>47844</v>
       </c>
       <c r="G26" t="n">
-        <v>43232</v>
+        <v>44374</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
       <c r="C27" t="n">
-        <v>35393.2</v>
+        <v>36166.4</v>
       </c>
       <c r="D27" t="n">
-        <v>50371.5</v>
+        <v>51288.4</v>
       </c>
       <c r="E27" t="n">
-        <v>39002.25</v>
+        <v>39763.5</v>
       </c>
       <c r="F27" t="n">
-        <v>46988.5</v>
+        <v>47768.75</v>
       </c>
       <c r="G27" t="n">
-        <v>43000.5</v>
+        <v>43820</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="n">
-        <v>34803.7</v>
+        <v>35868.1</v>
       </c>
       <c r="D28" t="n">
-        <v>50141.5</v>
+        <v>51045</v>
       </c>
       <c r="E28" t="n">
-        <v>38607.5</v>
+        <v>39523.75</v>
       </c>
       <c r="F28" t="n">
-        <v>46998.5</v>
+        <v>47619.5</v>
       </c>
       <c r="G28" t="n">
-        <v>42730</v>
+        <v>43577.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="n">
+        <v>35257.3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>50795.3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>39108.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>47610.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>43286.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4567,621 +4675,639 @@
         <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>40510.1</v>
+        <v>44364</v>
       </c>
       <c r="D3" t="n">
-        <v>50312.4</v>
+        <v>44364</v>
       </c>
       <c r="E3" t="n">
-        <v>42657.5</v>
+        <v>44364</v>
       </c>
       <c r="F3" t="n">
-        <v>47735.25</v>
+        <v>44364</v>
       </c>
       <c r="G3" t="n">
-        <v>45095</v>
+        <v>44364</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="n">
-        <v>39700</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50753.7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>42149.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>47917.25</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>44867.5</v>
-      </c>
-      <c r="H4"/>
+        <v>44364.3370385992</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>38510.5</v>
+        <v>40213.8</v>
       </c>
       <c r="D5" t="n">
-        <v>50802.6</v>
+        <v>51408.1</v>
       </c>
       <c r="E5" t="n">
-        <v>41405.5</v>
+        <v>42693.75</v>
       </c>
       <c r="F5" t="n">
-        <v>48029.25</v>
+        <v>48534.75</v>
       </c>
       <c r="G5" t="n">
-        <v>44630</v>
+        <v>45448.5</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>37757.5</v>
+        <v>39020.6</v>
       </c>
       <c r="D6" t="n">
-        <v>50956</v>
+        <v>51475.6</v>
       </c>
       <c r="E6" t="n">
-        <v>40545.75</v>
+        <v>41954.25</v>
       </c>
       <c r="F6" t="n">
-        <v>47927</v>
+        <v>48666</v>
       </c>
       <c r="G6" t="n">
-        <v>44501</v>
+        <v>45221</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>37132.1</v>
+        <v>38267.4</v>
       </c>
       <c r="D7" t="n">
-        <v>50910.4</v>
+        <v>51643.9</v>
       </c>
       <c r="E7" t="n">
-        <v>40374</v>
+        <v>41092.75</v>
       </c>
       <c r="F7" t="n">
-        <v>47545.25</v>
+        <v>48573.75</v>
       </c>
       <c r="G7" t="n">
-        <v>44003.5</v>
+        <v>45101</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" t="n">
-        <v>36499.1</v>
+        <v>37639.1</v>
       </c>
       <c r="D8" t="n">
-        <v>50608.9</v>
+        <v>51606.3</v>
       </c>
       <c r="E8" t="n">
-        <v>39853</v>
+        <v>40925.5</v>
       </c>
       <c r="F8" t="n">
-        <v>47327.25</v>
+        <v>48194</v>
       </c>
       <c r="G8" t="n">
-        <v>43887</v>
+        <v>44604</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="C9" t="n">
-        <v>35801.8</v>
+        <v>37000</v>
       </c>
       <c r="D9" t="n">
-        <v>50697.9</v>
+        <v>51303</v>
       </c>
       <c r="E9" t="n">
-        <v>39324.25</v>
+        <v>40399</v>
       </c>
       <c r="F9" t="n">
-        <v>47268</v>
+        <v>47977.25</v>
       </c>
       <c r="G9" t="n">
-        <v>43346.5</v>
+        <v>44489.5</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="n">
-        <v>35488.5</v>
+        <v>36290.8</v>
       </c>
       <c r="D10" t="n">
-        <v>50568.2</v>
+        <v>51390.1</v>
       </c>
       <c r="E10" t="n">
-        <v>39107.5</v>
+        <v>39862.25</v>
       </c>
       <c r="F10" t="n">
-        <v>47150.5</v>
+        <v>47914.25</v>
       </c>
       <c r="G10" t="n">
-        <v>43115.5</v>
+        <v>43939</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11" t="n">
-        <v>34858.4</v>
+        <v>35967.4</v>
       </c>
       <c r="D11" t="n">
-        <v>50282.1</v>
+        <v>51251.1</v>
       </c>
       <c r="E11" t="n">
-        <v>38731.5</v>
+        <v>39634</v>
       </c>
       <c r="F11" t="n">
-        <v>47100.75</v>
+        <v>47785.75</v>
       </c>
       <c r="G11" t="n">
-        <v>42842.5</v>
+        <v>43697.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12" t="n">
-        <v>34215.8</v>
+        <v>35314.4</v>
       </c>
       <c r="D12" t="n">
-        <v>50495.8</v>
+        <v>50942.1</v>
       </c>
       <c r="E12" t="n">
-        <v>38348.25</v>
+        <v>39239.5</v>
       </c>
       <c r="F12" t="n">
-        <v>46910.25</v>
+        <v>47719.5</v>
       </c>
       <c r="G12" t="n">
-        <v>42729.5</v>
+        <v>43404</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="n">
-        <v>33764.7</v>
+        <v>34648.8</v>
       </c>
       <c r="D13" t="n">
-        <v>50609.2</v>
+        <v>51136.6</v>
       </c>
       <c r="E13" t="n">
-        <v>38049.25</v>
+        <v>38833</v>
       </c>
       <c r="F13" t="n">
-        <v>46694</v>
+        <v>47504.25</v>
       </c>
       <c r="G13" t="n">
-        <v>42934</v>
+        <v>43271</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="n">
-        <v>33824.7</v>
+        <v>34176.7</v>
       </c>
       <c r="D14" t="n">
-        <v>50780.3</v>
+        <v>51226.2</v>
       </c>
       <c r="E14" t="n">
-        <v>38042.5</v>
+        <v>38513</v>
       </c>
       <c r="F14" t="n">
-        <v>46955.75</v>
+        <v>47262.75</v>
       </c>
       <c r="G14" t="n">
-        <v>42773</v>
+        <v>43457</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="n">
-        <v>33773.3</v>
+        <v>34222.6</v>
       </c>
       <c r="D15" t="n">
-        <v>50783</v>
+        <v>51377.3</v>
       </c>
       <c r="E15" t="n">
-        <v>37913.75</v>
+        <v>38489.75</v>
       </c>
       <c r="F15" t="n">
-        <v>46932.75</v>
+        <v>47508.5</v>
       </c>
       <c r="G15" t="n">
-        <v>42876</v>
+        <v>43275.5</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>33500.7</v>
+        <v>34156.3</v>
       </c>
       <c r="D16" t="n">
-        <v>50791.6</v>
+        <v>51360</v>
       </c>
       <c r="E16" t="n">
-        <v>38031.5</v>
+        <v>38343.25</v>
       </c>
       <c r="F16" t="n">
-        <v>46785.25</v>
+        <v>47465</v>
       </c>
       <c r="G16" t="n">
-        <v>42696.5</v>
+        <v>43362.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
       <c r="C17" t="n">
-        <v>32961.9</v>
+        <v>33866.6</v>
       </c>
       <c r="D17" t="n">
-        <v>50502.6</v>
+        <v>51346.7</v>
       </c>
       <c r="E17" t="n">
-        <v>37745.5</v>
+        <v>38447.5</v>
       </c>
       <c r="F17" t="n">
-        <v>46846.25</v>
+        <v>47296</v>
       </c>
       <c r="G17" t="n">
-        <v>42530</v>
+        <v>43163</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="n">
-        <v>32505.1</v>
+        <v>33311.9</v>
       </c>
       <c r="D18" t="n">
-        <v>50728.6</v>
+        <v>51038.5</v>
       </c>
       <c r="E18" t="n">
-        <v>37598.5</v>
+        <v>38145.5</v>
       </c>
       <c r="F18" t="n">
-        <v>46757.25</v>
+        <v>47344.25</v>
       </c>
       <c r="G18" t="n">
-        <v>42283.5</v>
+        <v>42981.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
       </c>
       <c r="C19" t="n">
-        <v>32023.2</v>
+        <v>32843</v>
       </c>
       <c r="D19" t="n">
-        <v>50879.9</v>
+        <v>51254.7</v>
       </c>
       <c r="E19" t="n">
-        <v>37254.25</v>
+        <v>37988.75</v>
       </c>
       <c r="F19" t="n">
-        <v>46537.25</v>
+        <v>47243.25</v>
       </c>
       <c r="G19" t="n">
-        <v>42018.5</v>
+        <v>42723</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20" t="n">
-        <v>32163.7</v>
+        <v>32351.1</v>
       </c>
       <c r="D20" t="n">
-        <v>50883.5</v>
+        <v>51399</v>
       </c>
       <c r="E20" t="n">
-        <v>37092</v>
+        <v>37635.5</v>
       </c>
       <c r="F20" t="n">
-        <v>46406</v>
+        <v>47014.25</v>
       </c>
       <c r="G20" t="n">
-        <v>41961.5</v>
+        <v>42448.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>31883.9</v>
+        <v>32493.4</v>
       </c>
       <c r="D21" t="n">
-        <v>50782.5</v>
+        <v>51401.6</v>
       </c>
       <c r="E21" t="n">
-        <v>36587.5</v>
+        <v>37471.75</v>
       </c>
       <c r="F21" t="n">
-        <v>46150.25</v>
+        <v>46880.5</v>
       </c>
       <c r="G21" t="n">
-        <v>41515.5</v>
+        <v>42392.5</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>31120.4</v>
+        <v>32213.2</v>
       </c>
       <c r="D22" t="n">
-        <v>50411.3</v>
+        <v>51307</v>
       </c>
       <c r="E22" t="n">
-        <v>36129.75</v>
+        <v>36966.5</v>
       </c>
       <c r="F22" t="n">
-        <v>45731</v>
+        <v>46620</v>
       </c>
       <c r="G22" t="n">
-        <v>41287</v>
+        <v>41945</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>30469.1</v>
+        <v>31454.2</v>
       </c>
       <c r="D23" t="n">
-        <v>49961.5</v>
+        <v>50924.1</v>
       </c>
       <c r="E23" t="n">
-        <v>35546.5</v>
+        <v>36506</v>
       </c>
       <c r="F23" t="n">
-        <v>44988.5</v>
+        <v>46190.75</v>
       </c>
       <c r="G23" t="n">
-        <v>40572.5</v>
+        <v>41715</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>30182.3</v>
+        <v>30788.6</v>
       </c>
       <c r="D24" t="n">
-        <v>49119.5</v>
+        <v>50462.1</v>
       </c>
       <c r="E24" t="n">
-        <v>34798.5</v>
+        <v>35942.25</v>
       </c>
       <c r="F24" t="n">
-        <v>44480.25</v>
+        <v>45459.25</v>
       </c>
       <c r="G24" t="n">
-        <v>39965.5</v>
+        <v>41002</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>29006.7</v>
+        <v>30506.1</v>
       </c>
       <c r="D25" t="n">
-        <v>48148.5</v>
+        <v>49623</v>
       </c>
       <c r="E25" t="n">
-        <v>34550.25</v>
+        <v>35162.5</v>
       </c>
       <c r="F25" t="n">
-        <v>43813.5</v>
+        <v>44947.75</v>
       </c>
       <c r="G25" t="n">
-        <v>39171</v>
+        <v>40391.5</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>28466.4</v>
+        <v>29321.5</v>
       </c>
       <c r="D26" t="n">
-        <v>47370</v>
+        <v>48672.4</v>
       </c>
       <c r="E26" t="n">
-        <v>33807.75</v>
+        <v>34908.25</v>
       </c>
       <c r="F26" t="n">
-        <v>42926</v>
+        <v>44319.5</v>
       </c>
       <c r="G26" t="n">
-        <v>38627</v>
+        <v>39624.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
       <c r="C27" t="n">
-        <v>28138.3</v>
+        <v>28762.1</v>
       </c>
       <c r="D27" t="n">
-        <v>46616.7</v>
+        <v>47883.4</v>
       </c>
       <c r="E27" t="n">
-        <v>32987.5</v>
+        <v>34137.75</v>
       </c>
       <c r="F27" t="n">
-        <v>42271.5</v>
+        <v>43357</v>
       </c>
       <c r="G27" t="n">
-        <v>37833.5</v>
+        <v>39075</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>27447.3</v>
+        <v>28342.4</v>
       </c>
       <c r="D28" t="n">
-        <v>45045.9</v>
+        <v>47062.5</v>
       </c>
       <c r="E28" t="n">
-        <v>32322.5</v>
+        <v>33439.5</v>
       </c>
       <c r="F28" t="n">
-        <v>41558.5</v>
+        <v>42731.25</v>
       </c>
       <c r="G28" t="n">
-        <v>37101</v>
+        <v>38254.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27771.9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>45612.4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>32674</v>
+      </c>
+      <c r="F29" t="n">
+        <v>42034.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>37489.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5236,16 +5362,16 @@
         <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D3" t="n">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E3" t="n">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F3" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G3" t="n">
         <v>168</v>
@@ -5254,603 +5380,621 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="n">
-        <v>143</v>
-      </c>
-      <c r="D4" t="n">
-        <v>184</v>
-      </c>
-      <c r="E4" t="n">
-        <v>151</v>
-      </c>
-      <c r="F4" t="n">
-        <v>173</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>162</v>
-      </c>
-      <c r="H4"/>
+        <v>168.031765672152</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="C5" t="n">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D5" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E5" t="n">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="F5" t="n">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G5" t="n">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D6" t="n">
-        <v>181</v>
+        <v>193.1</v>
       </c>
       <c r="E6" t="n">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F6" t="n">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G6" t="n">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D7" t="n">
-        <v>177</v>
+        <v>189.1</v>
       </c>
       <c r="E7" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F7" t="n">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="G7" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D8" t="n">
-        <v>172</v>
+        <v>186.1</v>
       </c>
       <c r="E8" t="n">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F8" t="n">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G8" t="n">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>108</v>
+        <v>120.9</v>
       </c>
       <c r="D9" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E9" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F9" t="n">
-        <v>150.25</v>
+        <v>164</v>
       </c>
       <c r="G9" t="n">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>102</v>
+        <v>114.9</v>
       </c>
       <c r="D10" t="n">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E10" t="n">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F10" t="n">
-        <v>146</v>
+        <v>158.25</v>
       </c>
       <c r="G10" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>97.9</v>
+        <v>108</v>
       </c>
       <c r="D11" t="n">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E11" t="n">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F11" t="n">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G11" t="n">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>92</v>
+        <v>103.9</v>
       </c>
       <c r="D12" t="n">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E12" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F12" t="n">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G12" t="n">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
       <c r="C13" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D13" t="n">
-        <v>156</v>
+        <v>166.1</v>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F13" t="n">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G13" t="n">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
       </c>
       <c r="C14" t="n">
-        <v>84</v>
+        <v>93.9</v>
       </c>
       <c r="D14" t="n">
-        <v>153</v>
+        <v>162.1</v>
       </c>
       <c r="E14" t="n">
-        <v>97</v>
+        <v>105.75</v>
       </c>
       <c r="F14" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G14" t="n">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D15" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E15" t="n">
-        <v>92.75</v>
+        <v>102</v>
       </c>
       <c r="F15" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G15" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
       <c r="C16" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D16" t="n">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E16" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F16" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G16" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D17" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E17" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F17" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G17" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D18" t="n">
-        <v>143</v>
+        <v>152.1</v>
       </c>
       <c r="E18" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F18" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G18" t="n">
-        <v>97</v>
+        <v>106.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>67.9</v>
+        <v>75</v>
       </c>
       <c r="D19" t="n">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E19" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F19" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G19" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D20" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E20" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F20" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G20" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
       </c>
       <c r="C21" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D21" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E21" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F21" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G21" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D22" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E22" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F22" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G22" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D23" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E23" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F23" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G23" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
       <c r="C24" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D24" t="n">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E24" t="n">
-        <v>66.75</v>
+        <v>73.75</v>
       </c>
       <c r="F24" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G24" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
       <c r="C25" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D25" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E25" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F25" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G25" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="C26" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D26" t="n">
-        <v>121.1</v>
+        <v>130</v>
       </c>
       <c r="E26" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F26" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G26" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
       </c>
       <c r="C27" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D27" t="n">
-        <v>116</v>
+        <v>127.1</v>
       </c>
       <c r="E27" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F27" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G27" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
       </c>
       <c r="C28" t="n">
+        <v>52</v>
+      </c>
+      <c r="D28" t="n">
+        <v>122</v>
+      </c>
+      <c r="E28" t="n">
+        <v>63</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>80</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="D28" t="n">
-        <v>114</v>
-      </c>
-      <c r="E28" t="n">
-        <v>57</v>
-      </c>
-      <c r="F28" t="n">
-        <v>92</v>
-      </c>
-      <c r="G28" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="H28"/>
+      <c r="C29" t="n">
+        <v>50</v>
+      </c>
+      <c r="D29" t="n">
+        <v>120</v>
+      </c>
+      <c r="E29" t="n">
+        <v>60</v>
+      </c>
+      <c r="F29" t="n">
+        <v>97</v>
+      </c>
+      <c r="G29" t="n">
+        <v>77</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5905,621 +6049,639 @@
         <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00300853264859762</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00356594600958684</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00314283638616833</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00341875552188993</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00327405139222421</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.00283155276278622</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.003577016556795</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00298412822928122</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00338039963085379</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.00318507164626932</v>
-      </c>
-      <c r="H4"/>
+        <v>0.00332243181798927</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00271324131998655</v>
+        <v>0.00292964957572901</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00360642955131089</v>
+        <v>0.00368170362032045</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00288104876665512</v>
+        <v>0.00308658752961428</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00333750205177737</v>
+        <v>0.00348244674032023</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0030851179774791</v>
+        <v>0.00328740167996728</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00258625615626352</v>
+        <v>0.00281138679952589</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00356492920736229</v>
+        <v>0.00371167630440289</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00279019603920831</v>
+        <v>0.00298293660919552</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00327573369947681</v>
+        <v>0.00344183349320391</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00300346689438966</v>
+        <v>0.00318866339220466</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00250925876428158</v>
+        <v>0.00267996983302801</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0035379597682913</v>
+        <v>0.00367144578818685</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00269145725006556</v>
+        <v>0.00289073415072428</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00323358741302863</v>
+        <v>0.0033987008162277</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00292386943157727</v>
+        <v>0.00310791172086238</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00237993325269002</v>
+        <v>0.00261007430876374</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00350477960598201</v>
+        <v>0.00364940276261873</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00260572108561708</v>
+        <v>0.00280131092471068</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00314839247322102</v>
+        <v>0.00334347255560363</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00285891434540233</v>
+        <v>0.00302973774431574</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00232349751915578</v>
+        <v>0.00246937695985857</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00352669639733175</v>
+        <v>0.00364070669767128</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00252559966004724</v>
+        <v>0.00270771195343598</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00312455254530754</v>
+        <v>0.00326560154112238</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00280420534036074</v>
+        <v>0.00296862462210082</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00222867201615606</v>
+        <v>0.00242103438388979</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00348238823130227</v>
+        <v>0.00363634552852664</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00247075413339894</v>
+        <v>0.00262373344315117</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0030825194195036</v>
+        <v>0.00324533224323829</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00274144011649622</v>
+        <v>0.00291499411086223</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00216696571235105</v>
+        <v>0.00232550588471484</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00345636034371069</v>
+        <v>0.00357669967837935</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00240846547262393</v>
+        <v>0.0025714110274995</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00302229236965952</v>
+        <v>0.00319562748293054</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0026742211534817</v>
+        <v>0.00285481073018293</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00210392182790631</v>
+        <v>0.00226391979666271</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003433080656456</v>
+        <v>0.00357741449630595</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00235763218916339</v>
+        <v>0.00251175602584663</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00297587358927933</v>
+        <v>0.00313904435496515</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00261880701108369</v>
+        <v>0.00278085559645592</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00203705258458168</v>
+        <v>0.00219033507853581</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00335208526692825</v>
+        <v>0.00354027873720605</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00229238391405883</v>
+        <v>0.00246530611155127</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00293916332398655</v>
+        <v>0.00308027464460958</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00254755417465436</v>
+        <v>0.00272004915323925</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00196771875215439</v>
+        <v>0.00213701450069962</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00332939751508613</v>
+        <v>0.00349265806925086</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00221260861196228</v>
+        <v>0.00238649997667741</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00289539954744819</v>
+        <v>0.00304897268699939</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00249987373515223</v>
+        <v>0.00265490992261796</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00191014266760145</v>
+        <v>0.0020550809630113</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00332158992597556</v>
+        <v>0.00346395296078372</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00215498747144368</v>
+        <v>0.00231196248799999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00282497933845476</v>
+        <v>0.0030017696016018</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00243912869308377</v>
+        <v>0.00260869477609755</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00187307316099676</v>
+        <v>0.00199331821559796</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00327943332976675</v>
+        <v>0.00344857320027539</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00208998621522205</v>
+        <v>0.00225121004331668</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00279694111992169</v>
+        <v>0.00293770595771563</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00241107042958896</v>
+        <v>0.00254529638063789</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00179617109639752</v>
+        <v>0.00196680966164359</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0032546981611485</v>
+        <v>0.00340396678129483</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00202451201371737</v>
+        <v>0.00218622406926624</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00276783716769708</v>
+        <v>0.00291501011379984</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00234333994546046</v>
+        <v>0.00250660843387538</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00174033571287932</v>
+        <v>0.0018742248219388</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0031951982498484</v>
+        <v>0.0033874104465484</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00196778081789296</v>
+        <v>0.00211620503184213</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00272907636294665</v>
+        <v>0.0028795646586779</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00229780121524786</v>
+        <v>0.00244526581078666</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00166466682905807</v>
+        <v>0.00181640933138789</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00317143024969412</v>
+        <v>0.00331594412616082</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00191687995668597</v>
+        <v>0.00206212137847317</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00269136980725436</v>
+        <v>0.00284215318199034</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00225954879830719</v>
+        <v>0.00239071622492533</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00162671338256323</v>
+        <v>0.00174432818856424</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00312979413808315</v>
+        <v>0.00329712911692434</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00186361852210535</v>
+        <v>0.00200624552058601</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00263844214522403</v>
+        <v>0.00278913008137216</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00220804637955809</v>
+        <v>0.00235729463578983</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00158869697159897</v>
+        <v>0.00170766350059229</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00307119205981298</v>
+        <v>0.00327099211947138</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00182114414633437</v>
+        <v>0.00195270095828048</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00259419431476074</v>
+        <v>0.00274255189666672</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0021651452820523</v>
+        <v>0.00230373907446055</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00154777627753469</v>
+        <v>0.00166246781309906</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00303005557178549</v>
+        <v>0.00319059599863003</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00177087027115703</v>
+        <v>0.00191149622796192</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002570765414845</v>
+        <v>0.00269553210513612</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00214305987923408</v>
+        <v>0.0022740157720454</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00150069982972044</v>
+        <v>0.00161977649419002</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00300751537318809</v>
+        <v>0.00315230232578047</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00171664028096897</v>
+        <v>0.00186037187565422</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00251333259053846</v>
+        <v>0.00268270835185193</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00209754711373346</v>
+        <v>0.00223676948892026</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00144064865084054</v>
+        <v>0.00157950556855456</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00293772215258605</v>
+        <v>0.00313730025858237</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00167946280577789</v>
+        <v>0.00180725151578713</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00248910348138633</v>
+        <v>0.00261910358911559</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00205280389096133</v>
+        <v>0.00220017207730452</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00141079457961196</v>
+        <v>0.00151706651921047</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00288910652789797</v>
+        <v>0.00306720272509824</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00163700259878717</v>
+        <v>0.00176569992995505</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00244734335360076</v>
+        <v>0.00259127118081186</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00201346172131086</v>
+        <v>0.00214634411066186</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00135574379193936</v>
+        <v>0.00147618985545545</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00289917208968755</v>
+        <v>0.00300808091432915</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00160780012783343</v>
+        <v>0.00171471749419156</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00239166148371873</v>
+        <v>0.00254650769628099</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00196007450505837</v>
+        <v>0.00209915518055352</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00132106721312754</v>
+        <v>0.00142398884745509</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0028394940941543</v>
+        <v>0.00302286633585109</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00157682131360919</v>
+        <v>0.00168241487700871</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00235102754353064</v>
+        <v>0.00248995545400381</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00191975608062834</v>
+        <v>0.00204858343444242</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>49</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00127120917199646</v>
+        <v>0.00138920824669172</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0027708208525541</v>
+        <v>0.00295646320181137</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00152304441194892</v>
+        <v>0.00165236792061162</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00231618894010399</v>
+        <v>0.00246442434116916</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0018736539239411</v>
+        <v>0.00200529775287447</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.00133321071460741</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.00289404275189713</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.00160002651515673</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00241866417076222</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.001960588813718</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6574,49 +6736,43 @@
         <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7658</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7658</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>7658</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7658</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7658</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4"/>
+        <v>10387.91978</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -6640,7 +6796,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
@@ -6664,7 +6820,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
@@ -6688,7 +6844,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -6712,7 +6868,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
@@ -6736,7 +6892,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
@@ -6760,7 +6916,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -6784,7 +6940,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
@@ -6808,7 +6964,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
@@ -6832,7 +6988,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
@@ -6856,7 +7012,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
@@ -6880,7 +7036,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
@@ -6904,7 +7060,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
@@ -6928,7 +7084,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
@@ -6952,7 +7108,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
@@ -6976,7 +7132,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
@@ -7000,7 +7156,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -7024,7 +7180,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -7048,7 +7204,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
@@ -7072,7 +7228,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>51</v>
@@ -7096,7 +7252,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -7120,7 +7276,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -7144,7 +7300,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
@@ -7168,7 +7324,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
@@ -7189,6 +7345,30 @@
         <v>0</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
